--- a/Instruction Set.xlsx
+++ b/Instruction Set.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhwblender\OneDrive - Kansas State University\Projects\AmberOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesse\OneDrive - BYU Office 365\Projects\AmberOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Version 0.00" sheetId="1" r:id="rId1"/>
     <sheet name="Version 0.01" sheetId="3" r:id="rId2"/>
     <sheet name="Testing" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="136">
   <si>
     <t>OpCode</t>
   </si>
@@ -419,6 +419,21 @@
   </si>
   <si>
     <t>1 Mram</t>
+  </si>
+  <si>
+    <t>Extra registers</t>
+  </si>
+  <si>
+    <t>line#</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>16 byte computer</t>
   </si>
 </sst>
 </file>
@@ -582,7 +597,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -636,6 +651,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -924,21 +942,21 @@
       <selection activeCell="J12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.85546875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="4.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.54296875" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.81640625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="20.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
@@ -961,7 +979,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="11">
         <v>0</v>
       </c>
@@ -986,7 +1004,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -1011,7 +1029,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -1036,7 +1054,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -1061,7 +1079,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>4</v>
       </c>
@@ -1086,7 +1104,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -1111,7 +1129,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>6</v>
       </c>
@@ -1136,7 +1154,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>7</v>
       </c>
@@ -1161,7 +1179,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>8</v>
       </c>
@@ -1189,7 +1207,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>9</v>
       </c>
@@ -1218,7 +1236,7 @@
         <v>3.6363636363636362</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>10</v>
       </c>
@@ -1243,7 +1261,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>11</v>
       </c>
@@ -1271,7 +1289,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>12</v>
       </c>
@@ -1300,7 +1318,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>13</v>
       </c>
@@ -1325,7 +1343,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>14</v>
       </c>
@@ -1350,7 +1368,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>15</v>
       </c>
@@ -1376,7 +1394,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>16</v>
       </c>
@@ -1402,7 +1420,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="11">
         <v>17</v>
       </c>
@@ -1428,7 +1446,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>18</v>
       </c>
@@ -1454,7 +1472,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="11">
         <v>19</v>
       </c>
@@ -1480,7 +1498,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
         <v>20</v>
       </c>
@@ -1506,7 +1524,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="11">
         <v>21</v>
       </c>
@@ -1532,7 +1550,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="11">
         <v>22</v>
       </c>
@@ -1557,7 +1575,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="11">
         <v>23</v>
       </c>
@@ -1582,7 +1600,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="11">
         <v>24</v>
       </c>
@@ -1608,7 +1626,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="11">
         <v>25</v>
       </c>
@@ -1634,7 +1652,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="11">
         <v>26</v>
       </c>
@@ -1659,7 +1677,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="11">
         <v>27</v>
       </c>
@@ -1685,7 +1703,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="11">
         <v>28</v>
       </c>
@@ -1711,7 +1729,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="11">
         <v>29</v>
       </c>
@@ -1736,7 +1754,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="11">
         <v>30</v>
       </c>
@@ -1762,7 +1780,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="11">
         <v>31</v>
       </c>
@@ -1787,7 +1805,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="11">
         <v>32</v>
       </c>
@@ -1813,7 +1831,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="11">
         <v>33</v>
       </c>
@@ -1839,7 +1857,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="11">
         <v>34</v>
       </c>
@@ -1865,7 +1883,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="11">
         <v>35</v>
       </c>
@@ -1891,7 +1909,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="11">
         <v>36</v>
       </c>
@@ -1917,7 +1935,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="11">
         <v>37</v>
       </c>
@@ -1943,7 +1961,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="11">
         <v>38</v>
       </c>
@@ -1969,7 +1987,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="11">
         <v>39</v>
       </c>
@@ -1995,7 +2013,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="11">
         <v>40</v>
       </c>
@@ -2021,7 +2039,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="11">
         <v>41</v>
       </c>
@@ -2047,7 +2065,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="11">
         <v>42</v>
       </c>
@@ -2073,7 +2091,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="11">
         <v>43</v>
       </c>
@@ -2099,7 +2117,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="11">
         <v>44</v>
       </c>
@@ -2108,7 +2126,7 @@
         <v>00101100</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="11">
         <v>45</v>
       </c>
@@ -2117,7 +2135,7 @@
         <v>00101101</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="11">
         <v>46</v>
       </c>
@@ -2126,7 +2144,7 @@
         <v>00101110</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="11">
         <v>47</v>
       </c>
@@ -2135,7 +2153,7 @@
         <v>00101111</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="11">
         <v>48</v>
       </c>
@@ -2144,7 +2162,7 @@
         <v>00110000</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="11">
         <v>49</v>
       </c>
@@ -2153,7 +2171,7 @@
         <v>00110001</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="11">
         <v>50</v>
       </c>
@@ -2162,7 +2180,7 @@
         <v>00110010</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="11">
         <v>51</v>
       </c>
@@ -2171,7 +2189,7 @@
         <v>00110011</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="11">
         <v>52</v>
       </c>
@@ -2180,7 +2198,7 @@
         <v>00110100</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="11">
         <v>53</v>
       </c>
@@ -2189,7 +2207,7 @@
         <v>00110101</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="11">
         <v>54</v>
       </c>
@@ -2198,7 +2216,7 @@
         <v>00110110</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="11">
         <v>55</v>
       </c>
@@ -2207,7 +2225,7 @@
         <v>00110111</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="11">
         <v>56</v>
       </c>
@@ -2216,7 +2234,7 @@
         <v>00111000</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="11">
         <v>57</v>
       </c>
@@ -2225,7 +2243,7 @@
         <v>00111001</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="11">
         <v>58</v>
       </c>
@@ -2234,7 +2252,7 @@
         <v>00111010</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="11">
         <v>59</v>
       </c>
@@ -2243,7 +2261,7 @@
         <v>00111011</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="11">
         <v>60</v>
       </c>
@@ -2252,7 +2270,7 @@
         <v>00111100</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="11">
         <v>61</v>
       </c>
@@ -2261,7 +2279,7 @@
         <v>00111101</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="11">
         <v>62</v>
       </c>
@@ -2270,7 +2288,7 @@
         <v>00111110</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="11">
         <v>63</v>
       </c>
@@ -2279,7 +2297,7 @@
         <v>00111111</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="11">
         <v>64</v>
       </c>
@@ -2288,7 +2306,7 @@
         <v>01000000</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="11">
         <v>65</v>
       </c>
@@ -2297,7 +2315,7 @@
         <v>01000001</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="11">
         <v>66</v>
       </c>
@@ -2306,7 +2324,7 @@
         <v>01000010</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="11">
         <v>67</v>
       </c>
@@ -2315,7 +2333,7 @@
         <v>01000011</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="11">
         <v>68</v>
       </c>
@@ -2324,7 +2342,7 @@
         <v>01000100</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="11">
         <v>69</v>
       </c>
@@ -2333,7 +2351,7 @@
         <v>01000101</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="11">
         <v>70</v>
       </c>
@@ -2342,7 +2360,7 @@
         <v>01000110</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="11">
         <v>71</v>
       </c>
@@ -2351,7 +2369,7 @@
         <v>01000111</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="11">
         <v>72</v>
       </c>
@@ -2360,7 +2378,7 @@
         <v>01001000</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="11">
         <v>73</v>
       </c>
@@ -2369,7 +2387,7 @@
         <v>01001001</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="11">
         <v>74</v>
       </c>
@@ -2378,7 +2396,7 @@
         <v>01001010</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="11">
         <v>75</v>
       </c>
@@ -2387,7 +2405,7 @@
         <v>01001011</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="11">
         <v>76</v>
       </c>
@@ -2396,7 +2414,7 @@
         <v>01001100</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="11">
         <v>77</v>
       </c>
@@ -2405,7 +2423,7 @@
         <v>01001101</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="11">
         <v>78</v>
       </c>
@@ -2414,7 +2432,7 @@
         <v>01001110</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="11">
         <v>79</v>
       </c>
@@ -2423,7 +2441,7 @@
         <v>01001111</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="11">
         <v>80</v>
       </c>
@@ -2432,7 +2450,7 @@
         <v>01010000</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="11">
         <v>81</v>
       </c>
@@ -2441,7 +2459,7 @@
         <v>01010001</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="11">
         <v>82</v>
       </c>
@@ -2450,7 +2468,7 @@
         <v>01010010</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="11">
         <v>83</v>
       </c>
@@ -2459,7 +2477,7 @@
         <v>01010011</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="11">
         <v>84</v>
       </c>
@@ -2468,7 +2486,7 @@
         <v>01010100</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="11">
         <v>85</v>
       </c>
@@ -2477,7 +2495,7 @@
         <v>01010101</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="11">
         <v>86</v>
       </c>
@@ -2486,7 +2504,7 @@
         <v>01010110</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="11">
         <v>87</v>
       </c>
@@ -2495,7 +2513,7 @@
         <v>01010111</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="11">
         <v>88</v>
       </c>
@@ -2504,7 +2522,7 @@
         <v>01011000</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="11">
         <v>89</v>
       </c>
@@ -2513,7 +2531,7 @@
         <v>01011001</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="11">
         <v>90</v>
       </c>
@@ -2522,7 +2540,7 @@
         <v>01011010</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="11">
         <v>91</v>
       </c>
@@ -2531,7 +2549,7 @@
         <v>01011011</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="11">
         <v>92</v>
       </c>
@@ -2540,7 +2558,7 @@
         <v>01011100</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="11">
         <v>93</v>
       </c>
@@ -2549,7 +2567,7 @@
         <v>01011101</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="11">
         <v>94</v>
       </c>
@@ -2558,7 +2576,7 @@
         <v>01011110</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="11">
         <v>95</v>
       </c>
@@ -2567,7 +2585,7 @@
         <v>01011111</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="11">
         <v>96</v>
       </c>
@@ -2576,7 +2594,7 @@
         <v>01100000</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="11">
         <v>97</v>
       </c>
@@ -2585,7 +2603,7 @@
         <v>01100001</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="11">
         <v>98</v>
       </c>
@@ -2594,7 +2612,7 @@
         <v>01100010</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="11">
         <v>99</v>
       </c>
@@ -2603,7 +2621,7 @@
         <v>01100011</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="11">
         <v>100</v>
       </c>
@@ -2612,7 +2630,7 @@
         <v>01100100</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="11">
         <v>101</v>
       </c>
@@ -2621,7 +2639,7 @@
         <v>01100101</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="11">
         <v>102</v>
       </c>
@@ -2630,7 +2648,7 @@
         <v>01100110</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="11">
         <v>103</v>
       </c>
@@ -2639,7 +2657,7 @@
         <v>01100111</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="11">
         <v>104</v>
       </c>
@@ -2648,7 +2666,7 @@
         <v>01101000</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="11">
         <v>105</v>
       </c>
@@ -2657,7 +2675,7 @@
         <v>01101001</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="11">
         <v>106</v>
       </c>
@@ -2666,7 +2684,7 @@
         <v>01101010</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="11">
         <v>107</v>
       </c>
@@ -2675,7 +2693,7 @@
         <v>01101011</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="11">
         <v>108</v>
       </c>
@@ -2684,7 +2702,7 @@
         <v>01101100</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="11">
         <v>109</v>
       </c>
@@ -2693,7 +2711,7 @@
         <v>01101101</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="11">
         <v>110</v>
       </c>
@@ -2702,7 +2720,7 @@
         <v>01101110</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="11">
         <v>111</v>
       </c>
@@ -2711,7 +2729,7 @@
         <v>01101111</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="11">
         <v>112</v>
       </c>
@@ -2720,7 +2738,7 @@
         <v>01110000</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="11">
         <v>113</v>
       </c>
@@ -2729,7 +2747,7 @@
         <v>01110001</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="11">
         <v>114</v>
       </c>
@@ -2738,7 +2756,7 @@
         <v>01110010</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="11">
         <v>115</v>
       </c>
@@ -2747,7 +2765,7 @@
         <v>01110011</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="11">
         <v>116</v>
       </c>
@@ -2756,7 +2774,7 @@
         <v>01110100</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="11">
         <v>117</v>
       </c>
@@ -2765,7 +2783,7 @@
         <v>01110101</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="11">
         <v>118</v>
       </c>
@@ -2774,7 +2792,7 @@
         <v>01110110</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="11">
         <v>119</v>
       </c>
@@ -2783,7 +2801,7 @@
         <v>01110111</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="11">
         <v>120</v>
       </c>
@@ -2792,7 +2810,7 @@
         <v>01111000</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="11">
         <v>121</v>
       </c>
@@ -2801,7 +2819,7 @@
         <v>01111001</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="11">
         <v>122</v>
       </c>
@@ -2810,7 +2828,7 @@
         <v>01111010</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="11">
         <v>123</v>
       </c>
@@ -2819,7 +2837,7 @@
         <v>01111011</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="11">
         <v>124</v>
       </c>
@@ -2828,7 +2846,7 @@
         <v>01111100</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="11">
         <v>125</v>
       </c>
@@ -2837,7 +2855,7 @@
         <v>01111101</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="11">
         <v>126</v>
       </c>
@@ -2846,7 +2864,7 @@
         <v>01111110</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="11">
         <v>127</v>
       </c>
@@ -2855,7 +2873,7 @@
         <v>01111111</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="11">
         <v>128</v>
       </c>
@@ -2864,7 +2882,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="11">
         <v>129</v>
       </c>
@@ -2873,7 +2891,7 @@
         <v>10000001</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="11">
         <v>130</v>
       </c>
@@ -2882,7 +2900,7 @@
         <v>10000010</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="11">
         <v>131</v>
       </c>
@@ -2891,7 +2909,7 @@
         <v>10000011</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="11">
         <v>132</v>
       </c>
@@ -2900,7 +2918,7 @@
         <v>10000100</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="11">
         <v>133</v>
       </c>
@@ -2909,7 +2927,7 @@
         <v>10000101</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="11">
         <v>134</v>
       </c>
@@ -2918,7 +2936,7 @@
         <v>10000110</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="11">
         <v>135</v>
       </c>
@@ -2927,7 +2945,7 @@
         <v>10000111</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="11">
         <v>136</v>
       </c>
@@ -2936,7 +2954,7 @@
         <v>10001000</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="11">
         <v>137</v>
       </c>
@@ -2945,7 +2963,7 @@
         <v>10001001</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="11">
         <v>138</v>
       </c>
@@ -2954,7 +2972,7 @@
         <v>10001010</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="11">
         <v>139</v>
       </c>
@@ -2963,7 +2981,7 @@
         <v>10001011</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="11">
         <v>140</v>
       </c>
@@ -2972,7 +2990,7 @@
         <v>10001100</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="11">
         <v>141</v>
       </c>
@@ -2981,7 +2999,7 @@
         <v>10001101</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="11">
         <v>142</v>
       </c>
@@ -2990,7 +3008,7 @@
         <v>10001110</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="11">
         <v>143</v>
       </c>
@@ -2999,7 +3017,7 @@
         <v>10001111</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="11">
         <v>144</v>
       </c>
@@ -3008,7 +3026,7 @@
         <v>10010000</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="11">
         <v>145</v>
       </c>
@@ -3017,7 +3035,7 @@
         <v>10010001</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="11">
         <v>146</v>
       </c>
@@ -3026,7 +3044,7 @@
         <v>10010010</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="11">
         <v>147</v>
       </c>
@@ -3035,7 +3053,7 @@
         <v>10010011</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="11">
         <v>148</v>
       </c>
@@ -3044,7 +3062,7 @@
         <v>10010100</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="11">
         <v>149</v>
       </c>
@@ -3053,7 +3071,7 @@
         <v>10010101</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="11">
         <v>150</v>
       </c>
@@ -3062,7 +3080,7 @@
         <v>10010110</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="11">
         <v>151</v>
       </c>
@@ -3071,7 +3089,7 @@
         <v>10010111</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="11">
         <v>152</v>
       </c>
@@ -3080,7 +3098,7 @@
         <v>10011000</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="11">
         <v>153</v>
       </c>
@@ -3089,7 +3107,7 @@
         <v>10011001</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="11">
         <v>154</v>
       </c>
@@ -3098,7 +3116,7 @@
         <v>10011010</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="11">
         <v>155</v>
       </c>
@@ -3107,7 +3125,7 @@
         <v>10011011</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="11">
         <v>156</v>
       </c>
@@ -3116,7 +3134,7 @@
         <v>10011100</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="11">
         <v>157</v>
       </c>
@@ -3125,7 +3143,7 @@
         <v>10011101</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="11">
         <v>158</v>
       </c>
@@ -3134,7 +3152,7 @@
         <v>10011110</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="11">
         <v>159</v>
       </c>
@@ -3143,7 +3161,7 @@
         <v>10011111</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="11">
         <v>160</v>
       </c>
@@ -3152,7 +3170,7 @@
         <v>10100000</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="11">
         <v>161</v>
       </c>
@@ -3161,7 +3179,7 @@
         <v>10100001</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="11">
         <v>162</v>
       </c>
@@ -3170,7 +3188,7 @@
         <v>10100010</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="11">
         <v>163</v>
       </c>
@@ -3179,7 +3197,7 @@
         <v>10100011</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="11">
         <v>164</v>
       </c>
@@ -3188,7 +3206,7 @@
         <v>10100100</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="11">
         <v>165</v>
       </c>
@@ -3197,7 +3215,7 @@
         <v>10100101</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="11">
         <v>166</v>
       </c>
@@ -3206,7 +3224,7 @@
         <v>10100110</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="11">
         <v>167</v>
       </c>
@@ -3215,7 +3233,7 @@
         <v>10100111</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="11">
         <v>168</v>
       </c>
@@ -3224,7 +3242,7 @@
         <v>10101000</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="11">
         <v>169</v>
       </c>
@@ -3233,7 +3251,7 @@
         <v>10101001</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="11">
         <v>170</v>
       </c>
@@ -3242,7 +3260,7 @@
         <v>10101010</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="11">
         <v>171</v>
       </c>
@@ -3251,7 +3269,7 @@
         <v>10101011</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="11">
         <v>172</v>
       </c>
@@ -3260,7 +3278,7 @@
         <v>10101100</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="11">
         <v>173</v>
       </c>
@@ -3269,7 +3287,7 @@
         <v>10101101</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="11">
         <v>174</v>
       </c>
@@ -3278,7 +3296,7 @@
         <v>10101110</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="11">
         <v>175</v>
       </c>
@@ -3287,7 +3305,7 @@
         <v>10101111</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="11">
         <v>176</v>
       </c>
@@ -3296,7 +3314,7 @@
         <v>10110000</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="11">
         <v>177</v>
       </c>
@@ -3305,7 +3323,7 @@
         <v>10110001</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="11">
         <v>178</v>
       </c>
@@ -3314,7 +3332,7 @@
         <v>10110010</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="11">
         <v>179</v>
       </c>
@@ -3323,7 +3341,7 @@
         <v>10110011</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="11">
         <v>180</v>
       </c>
@@ -3332,7 +3350,7 @@
         <v>10110100</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="11">
         <v>181</v>
       </c>
@@ -3341,7 +3359,7 @@
         <v>10110101</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="11">
         <v>182</v>
       </c>
@@ -3350,7 +3368,7 @@
         <v>10110110</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="11">
         <v>183</v>
       </c>
@@ -3359,7 +3377,7 @@
         <v>10110111</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="11">
         <v>184</v>
       </c>
@@ -3368,7 +3386,7 @@
         <v>10111000</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="11">
         <v>185</v>
       </c>
@@ -3377,7 +3395,7 @@
         <v>10111001</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="11">
         <v>186</v>
       </c>
@@ -3386,7 +3404,7 @@
         <v>10111010</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" s="11">
         <v>187</v>
       </c>
@@ -3395,7 +3413,7 @@
         <v>10111011</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" s="11">
         <v>188</v>
       </c>
@@ -3404,7 +3422,7 @@
         <v>10111100</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" s="11">
         <v>189</v>
       </c>
@@ -3413,7 +3431,7 @@
         <v>10111101</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" s="11">
         <v>190</v>
       </c>
@@ -3422,7 +3440,7 @@
         <v>10111110</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" s="11">
         <v>191</v>
       </c>
@@ -3431,7 +3449,7 @@
         <v>10111111</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" s="11">
         <v>192</v>
       </c>
@@ -3440,7 +3458,7 @@
         <v>11000000</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" s="11">
         <v>193</v>
       </c>
@@ -3449,7 +3467,7 @@
         <v>11000001</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" s="11">
         <v>194</v>
       </c>
@@ -3458,7 +3476,7 @@
         <v>11000010</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" s="11">
         <v>195</v>
       </c>
@@ -3467,7 +3485,7 @@
         <v>11000011</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" s="11">
         <v>196</v>
       </c>
@@ -3476,7 +3494,7 @@
         <v>11000100</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" s="11">
         <v>197</v>
       </c>
@@ -3485,7 +3503,7 @@
         <v>11000101</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" s="11">
         <v>198</v>
       </c>
@@ -3494,7 +3512,7 @@
         <v>11000110</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" s="11">
         <v>199</v>
       </c>
@@ -3503,7 +3521,7 @@
         <v>11000111</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" s="11">
         <v>200</v>
       </c>
@@ -3512,7 +3530,7 @@
         <v>11001000</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" s="11">
         <v>201</v>
       </c>
@@ -3521,7 +3539,7 @@
         <v>11001001</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" s="11">
         <v>202</v>
       </c>
@@ -3530,7 +3548,7 @@
         <v>11001010</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" s="11">
         <v>203</v>
       </c>
@@ -3539,7 +3557,7 @@
         <v>11001011</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" s="11">
         <v>204</v>
       </c>
@@ -3548,7 +3566,7 @@
         <v>11001100</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" s="11">
         <v>205</v>
       </c>
@@ -3557,7 +3575,7 @@
         <v>11001101</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" s="11">
         <v>206</v>
       </c>
@@ -3566,7 +3584,7 @@
         <v>11001110</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" s="11">
         <v>207</v>
       </c>
@@ -3575,7 +3593,7 @@
         <v>11001111</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" s="11">
         <v>208</v>
       </c>
@@ -3584,7 +3602,7 @@
         <v>11010000</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" s="11">
         <v>209</v>
       </c>
@@ -3593,7 +3611,7 @@
         <v>11010001</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" s="11">
         <v>210</v>
       </c>
@@ -3602,7 +3620,7 @@
         <v>11010010</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" s="11">
         <v>211</v>
       </c>
@@ -3611,7 +3629,7 @@
         <v>11010011</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" s="11">
         <v>212</v>
       </c>
@@ -3620,7 +3638,7 @@
         <v>11010100</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" s="11">
         <v>213</v>
       </c>
@@ -3629,7 +3647,7 @@
         <v>11010101</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" s="11">
         <v>214</v>
       </c>
@@ -3638,7 +3656,7 @@
         <v>11010110</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" s="11">
         <v>215</v>
       </c>
@@ -3647,7 +3665,7 @@
         <v>11010111</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" s="11">
         <v>216</v>
       </c>
@@ -3656,7 +3674,7 @@
         <v>11011000</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" s="11">
         <v>217</v>
       </c>
@@ -3665,7 +3683,7 @@
         <v>11011001</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" s="11">
         <v>218</v>
       </c>
@@ -3674,7 +3692,7 @@
         <v>11011010</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" s="11">
         <v>219</v>
       </c>
@@ -3683,7 +3701,7 @@
         <v>11011011</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" s="11">
         <v>220</v>
       </c>
@@ -3692,7 +3710,7 @@
         <v>11011100</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" s="11">
         <v>221</v>
       </c>
@@ -3701,7 +3719,7 @@
         <v>11011101</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" s="11">
         <v>222</v>
       </c>
@@ -3710,7 +3728,7 @@
         <v>11011110</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" s="11">
         <v>223</v>
       </c>
@@ -3719,7 +3737,7 @@
         <v>11011111</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" s="11">
         <v>224</v>
       </c>
@@ -3728,7 +3746,7 @@
         <v>11100000</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" s="11">
         <v>225</v>
       </c>
@@ -3737,7 +3755,7 @@
         <v>11100001</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" s="11">
         <v>226</v>
       </c>
@@ -3746,7 +3764,7 @@
         <v>11100010</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" s="11">
         <v>227</v>
       </c>
@@ -3755,7 +3773,7 @@
         <v>11100011</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" s="11">
         <v>228</v>
       </c>
@@ -3764,7 +3782,7 @@
         <v>11100100</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" s="11">
         <v>229</v>
       </c>
@@ -3773,7 +3791,7 @@
         <v>11100101</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" s="11">
         <v>230</v>
       </c>
@@ -3782,7 +3800,7 @@
         <v>11100110</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" s="11">
         <v>231</v>
       </c>
@@ -3791,7 +3809,7 @@
         <v>11100111</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" s="11">
         <v>232</v>
       </c>
@@ -3800,7 +3818,7 @@
         <v>11101000</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" s="11">
         <v>233</v>
       </c>
@@ -3809,7 +3827,7 @@
         <v>11101001</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" s="11">
         <v>234</v>
       </c>
@@ -3818,7 +3836,7 @@
         <v>11101010</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" s="11">
         <v>235</v>
       </c>
@@ -3827,7 +3845,7 @@
         <v>11101011</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" s="11">
         <v>236</v>
       </c>
@@ -3836,7 +3854,7 @@
         <v>11101100</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" s="11">
         <v>237</v>
       </c>
@@ -3845,7 +3863,7 @@
         <v>11101101</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" s="11">
         <v>238</v>
       </c>
@@ -3854,7 +3872,7 @@
         <v>11101110</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" s="11">
         <v>239</v>
       </c>
@@ -3863,7 +3881,7 @@
         <v>11101111</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" s="11">
         <v>240</v>
       </c>
@@ -3872,7 +3890,7 @@
         <v>11110000</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" s="11">
         <v>241</v>
       </c>
@@ -3881,7 +3899,7 @@
         <v>11110001</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" s="11">
         <v>242</v>
       </c>
@@ -3890,7 +3908,7 @@
         <v>11110010</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" s="11">
         <v>243</v>
       </c>
@@ -3899,7 +3917,7 @@
         <v>11110011</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" s="11">
         <v>244</v>
       </c>
@@ -3908,7 +3926,7 @@
         <v>11110100</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" s="11">
         <v>245</v>
       </c>
@@ -3917,7 +3935,7 @@
         <v>11110101</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" s="11">
         <v>246</v>
       </c>
@@ -3926,7 +3944,7 @@
         <v>11110110</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" s="11">
         <v>247</v>
       </c>
@@ -3935,7 +3953,7 @@
         <v>11110111</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" s="11">
         <v>248</v>
       </c>
@@ -3944,7 +3962,7 @@
         <v>11111000</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" s="11">
         <v>249</v>
       </c>
@@ -3953,7 +3971,7 @@
         <v>11111001</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" s="11">
         <v>250</v>
       </c>
@@ -3962,7 +3980,7 @@
         <v>11111010</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" s="11">
         <v>251</v>
       </c>
@@ -3971,7 +3989,7 @@
         <v>11111011</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" s="11">
         <v>252</v>
       </c>
@@ -3980,7 +3998,7 @@
         <v>11111100</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" s="11">
         <v>253</v>
       </c>
@@ -3989,7 +4007,7 @@
         <v>11111101</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" s="11">
         <v>254</v>
       </c>
@@ -3998,7 +4016,7 @@
         <v>11111110</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" s="11">
         <v>255</v>
       </c>
@@ -4015,27 +4033,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I257"/>
+  <dimension ref="A1:L257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.26953125" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.85546875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="8"/>
+    <col min="3" max="3" width="8.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.54296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.1796875" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.81640625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="22.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" style="8"/>
+    <col min="11" max="11" width="12.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1796875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
@@ -4058,7 +4078,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="11">
         <v>0</v>
       </c>
@@ -4083,7 +4103,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -4101,14 +4121,14 @@
         <v>13</v>
       </c>
       <c r="F3" s="11">
-        <f t="shared" ref="F3:F45" si="1">(LEN(E3)-LEN(SUBSTITUTE(E3, ",","")))/LEN(",")+1</f>
+        <f t="shared" ref="F3:F6" si="1">(LEN(E3)-LEN(SUBSTITUTE(E3, ",","")))/LEN(",")+1</f>
         <v>2</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -4133,7 +4153,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -4157,8 +4177,11 @@
       <c r="G5" s="11" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>4</v>
       </c>
@@ -4183,7 +4206,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -4201,14 +4224,14 @@
         <v>57</v>
       </c>
       <c r="F7" s="11">
-        <f>(LEN(E7)-LEN(SUBSTITUTE(E7, ",","")))/LEN(",")+1</f>
+        <f t="shared" ref="F7:F45" si="2">(LEN(E7)-LEN(SUBSTITUTE(E7, ",","")))/LEN(",")+1</f>
         <v>4</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>6</v>
       </c>
@@ -4226,14 +4249,14 @@
         <v>61</v>
       </c>
       <c r="F8" s="11">
-        <f>(LEN(E8)-LEN(SUBSTITUTE(E8, ",","")))/LEN(",")+1</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>7</v>
       </c>
@@ -4252,14 +4275,14 @@
         <v>[OpCode, Constant, Register, Jump Address]</v>
       </c>
       <c r="F9" s="11">
-        <f>(LEN(E9)-LEN(SUBSTITUTE(E9, ",","")))/LEN(",")+1</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>8</v>
       </c>
@@ -4278,7 +4301,7 @@
         <v>[OpCode, Register1, Register2, Jump Address]</v>
       </c>
       <c r="F10" s="11">
-        <f>(LEN(E10)-LEN(SUBSTITUTE(E10, ",","")))/LEN(",")+1</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G10" s="11" t="s">
@@ -4287,8 +4310,14 @@
       <c r="I10" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K10" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>9</v>
       </c>
@@ -4307,7 +4336,7 @@
         <v>[OpCode, Constant, Register, Jump Address]</v>
       </c>
       <c r="F11" s="11">
-        <f>(LEN(E11)-LEN(SUBSTITUTE(E11, ",","")))/LEN(",")+1</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G11" s="11" t="s">
@@ -4317,8 +4346,14 @@
         <f>AVERAGE(F:F)</f>
         <v>3.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K11" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="L11" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>10</v>
       </c>
@@ -4337,14 +4372,20 @@
         <v>[OpCode, Register1, Register2, Jump Address]</v>
       </c>
       <c r="F12" s="11">
-        <f>(LEN(E12)-LEN(SUBSTITUTE(E12, ",","")))/LEN(",")+1</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K12" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="L12" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>11</v>
       </c>
@@ -4363,7 +4404,7 @@
         <v>[OpCode, Constant, Register, Jump Address]</v>
       </c>
       <c r="F13" s="11">
-        <f>(LEN(E13)-LEN(SUBSTITUTE(E13, ",","")))/LEN(",")+1</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G13" s="11" t="s">
@@ -4373,7 +4414,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>12</v>
       </c>
@@ -4392,7 +4433,7 @@
         <v>[OpCode, Register1, Register2, Jump Address]</v>
       </c>
       <c r="F14" s="11">
-        <f>(LEN(E14)-LEN(SUBSTITUTE(E14, ",","")))/LEN(",")+1</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G14" s="11" t="s">
@@ -4403,7 +4444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>13</v>
       </c>
@@ -4422,14 +4463,14 @@
         <v>[OpCode, Constant, Register, Jump Address]</v>
       </c>
       <c r="F15" s="11">
-        <f>(LEN(E15)-LEN(SUBSTITUTE(E15, ",","")))/LEN(",")+1</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>14</v>
       </c>
@@ -4447,7 +4488,7 @@
         <v>77</v>
       </c>
       <c r="F16" s="11">
-        <f>(LEN(E16)-LEN(SUBSTITUTE(E16, ",","")))/LEN(",")+1</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G16" s="11" t="s">
@@ -4457,7 +4498,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>15</v>
       </c>
@@ -4475,7 +4516,7 @@
         <v>80</v>
       </c>
       <c r="F17" s="11">
-        <f>(LEN(E17)-LEN(SUBSTITUTE(E17, ",","")))/LEN(",")+1</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G17" s="11" t="s">
@@ -4485,7 +4526,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>16</v>
       </c>
@@ -4504,7 +4545,7 @@
         <v>[OpCode, Register1, Register2, Output Address]</v>
       </c>
       <c r="F18" s="11">
-        <f>(LEN(E18)-LEN(SUBSTITUTE(E18, ",","")))/LEN(",")+1</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G18" s="11" t="s">
@@ -4514,7 +4555,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="11">
         <v>17</v>
       </c>
@@ -4533,14 +4574,14 @@
         <v>[OpCode, Constant, Register, Output Address]</v>
       </c>
       <c r="F19" s="11">
-        <f>(LEN(E19)-LEN(SUBSTITUTE(E19, ",","")))/LEN(",")+1</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>18</v>
       </c>
@@ -4558,14 +4599,14 @@
         <v>87</v>
       </c>
       <c r="F20" s="11">
-        <f>(LEN(E20)-LEN(SUBSTITUTE(E20, ",","")))/LEN(",")+1</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="11">
         <v>19</v>
       </c>
@@ -4584,14 +4625,14 @@
         <v>[OpCode, Register1, Register2, Output Address]</v>
       </c>
       <c r="F21" s="11">
-        <f>(LEN(E21)-LEN(SUBSTITUTE(E21, ",","")))/LEN(",")+1</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
         <v>20</v>
       </c>
@@ -4610,14 +4651,14 @@
         <v>[OpCode, Constant, Register, Output Address]</v>
       </c>
       <c r="F22" s="11">
-        <f>(LEN(E22)-LEN(SUBSTITUTE(E22, ",","")))/LEN(",")+1</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G22" s="11" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="11">
         <v>21</v>
       </c>
@@ -4635,14 +4676,14 @@
         <v>123</v>
       </c>
       <c r="F23" s="11">
-        <f>(LEN(E23)-LEN(SUBSTITUTE(E23, ",","")))/LEN(",")+1</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G23" s="11" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="11">
         <v>22</v>
       </c>
@@ -4661,14 +4702,14 @@
         <v>[OpCode, Register, Output Address]</v>
       </c>
       <c r="F24" s="11">
-        <f>(LEN(E24)-LEN(SUBSTITUTE(E24, ",","")))/LEN(",")+1</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="11">
         <v>23</v>
       </c>
@@ -4686,14 +4727,14 @@
         <v>123</v>
       </c>
       <c r="F25" s="11">
-        <f>(LEN(E25)-LEN(SUBSTITUTE(E25, ",","")))/LEN(",")+1</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="11">
         <v>24</v>
       </c>
@@ -4712,14 +4753,14 @@
         <v>[OpCode, Register1, Register2, Output Address]</v>
       </c>
       <c r="F26" s="11">
-        <f>(LEN(E26)-LEN(SUBSTITUTE(E26, ",","")))/LEN(",")+1</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="11">
         <v>25</v>
       </c>
@@ -4738,14 +4779,14 @@
         <v>[OpCode, Constant, Register, Output Address]</v>
       </c>
       <c r="F27" s="11">
-        <f>(LEN(E27)-LEN(SUBSTITUTE(E27, ",","")))/LEN(",")+1</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="11">
         <v>26</v>
       </c>
@@ -4760,18 +4801,18 @@
         <v>112</v>
       </c>
       <c r="E28" s="15" t="str">
-        <f t="shared" ref="E28:E37" si="2">E26</f>
+        <f t="shared" ref="E28:E37" si="3">E26</f>
         <v>[OpCode, Register1, Register2, Output Address]</v>
       </c>
       <c r="F28" s="11">
-        <f>(LEN(E28)-LEN(SUBSTITUTE(E28, ",","")))/LEN(",")+1</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="11">
         <v>27</v>
       </c>
@@ -4786,18 +4827,18 @@
         <v>120</v>
       </c>
       <c r="E29" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>[OpCode, Constant, Register, Output Address]</v>
+      </c>
+      <c r="F29" s="11">
         <f t="shared" si="2"/>
-        <v>[OpCode, Constant, Register, Output Address]</v>
-      </c>
-      <c r="F29" s="11">
-        <f>(LEN(E29)-LEN(SUBSTITUTE(E29, ",","")))/LEN(",")+1</f>
         <v>4</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="11">
         <v>28</v>
       </c>
@@ -4812,18 +4853,18 @@
         <v>113</v>
       </c>
       <c r="E30" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>[OpCode, Register1, Register2, Output Address]</v>
+      </c>
+      <c r="F30" s="11">
         <f t="shared" si="2"/>
-        <v>[OpCode, Register1, Register2, Output Address]</v>
-      </c>
-      <c r="F30" s="11">
-        <f>(LEN(E30)-LEN(SUBSTITUTE(E30, ",","")))/LEN(",")+1</f>
         <v>4</v>
       </c>
       <c r="G30" s="11" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="11">
         <v>29</v>
       </c>
@@ -4838,18 +4879,18 @@
         <v>121</v>
       </c>
       <c r="E31" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>[OpCode, Constant, Register, Output Address]</v>
+      </c>
+      <c r="F31" s="11">
         <f t="shared" si="2"/>
-        <v>[OpCode, Constant, Register, Output Address]</v>
-      </c>
-      <c r="F31" s="11">
-        <f>(LEN(E31)-LEN(SUBSTITUTE(E31, ",","")))/LEN(",")+1</f>
         <v>4</v>
       </c>
       <c r="G31" s="11" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="11">
         <v>30</v>
       </c>
@@ -4864,18 +4905,18 @@
         <v>114</v>
       </c>
       <c r="E32" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>[OpCode, Register1, Register2, Output Address]</v>
+      </c>
+      <c r="F32" s="11">
         <f t="shared" si="2"/>
-        <v>[OpCode, Register1, Register2, Output Address]</v>
-      </c>
-      <c r="F32" s="11">
-        <f>(LEN(E32)-LEN(SUBSTITUTE(E32, ",","")))/LEN(",")+1</f>
         <v>4</v>
       </c>
       <c r="G32" s="11" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="11">
         <v>31</v>
       </c>
@@ -4890,18 +4931,18 @@
         <v>118</v>
       </c>
       <c r="E33" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>[OpCode, Constant, Register, Output Address]</v>
+      </c>
+      <c r="F33" s="11">
         <f t="shared" si="2"/>
-        <v>[OpCode, Constant, Register, Output Address]</v>
-      </c>
-      <c r="F33" s="11">
-        <f>(LEN(E33)-LEN(SUBSTITUTE(E33, ",","")))/LEN(",")+1</f>
         <v>4</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="11">
         <v>32</v>
       </c>
@@ -4916,18 +4957,18 @@
         <v>115</v>
       </c>
       <c r="E34" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>[OpCode, Register1, Register2, Output Address]</v>
+      </c>
+      <c r="F34" s="11">
         <f t="shared" si="2"/>
-        <v>[OpCode, Register1, Register2, Output Address]</v>
-      </c>
-      <c r="F34" s="11">
-        <f>(LEN(E34)-LEN(SUBSTITUTE(E34, ",","")))/LEN(",")+1</f>
         <v>4</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="11">
         <v>33</v>
       </c>
@@ -4942,18 +4983,18 @@
         <v>119</v>
       </c>
       <c r="E35" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>[OpCode, Constant, Register, Output Address]</v>
+      </c>
+      <c r="F35" s="11">
         <f t="shared" si="2"/>
-        <v>[OpCode, Constant, Register, Output Address]</v>
-      </c>
-      <c r="F35" s="11">
-        <f>(LEN(E35)-LEN(SUBSTITUTE(E35, ",","")))/LEN(",")+1</f>
         <v>4</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="11">
         <v>34</v>
       </c>
@@ -4968,18 +5009,18 @@
         <v>116</v>
       </c>
       <c r="E36" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>[OpCode, Register1, Register2, Output Address]</v>
+      </c>
+      <c r="F36" s="11">
         <f t="shared" si="2"/>
-        <v>[OpCode, Register1, Register2, Output Address]</v>
-      </c>
-      <c r="F36" s="11">
-        <f>(LEN(E36)-LEN(SUBSTITUTE(E36, ",","")))/LEN(",")+1</f>
         <v>4</v>
       </c>
       <c r="G36" s="11" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="11">
         <v>35</v>
       </c>
@@ -4994,18 +5035,18 @@
         <v>122</v>
       </c>
       <c r="E37" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>[OpCode, Constant, Register, Output Address]</v>
+      </c>
+      <c r="F37" s="11">
         <f t="shared" si="2"/>
-        <v>[OpCode, Constant, Register, Output Address]</v>
-      </c>
-      <c r="F37" s="11">
-        <f>(LEN(E37)-LEN(SUBSTITUTE(E37, ",","")))/LEN(",")+1</f>
         <v>4</v>
       </c>
       <c r="G37" s="11" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="11">
         <v>36</v>
       </c>
@@ -5023,14 +5064,14 @@
         <v>124</v>
       </c>
       <c r="F38" s="11">
-        <f>(LEN(E38)-LEN(SUBSTITUTE(E38, ",","")))/LEN(",")+1</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="11">
         <v>37</v>
       </c>
@@ -5048,14 +5089,14 @@
         <v>125</v>
       </c>
       <c r="F39" s="11">
-        <f>(LEN(E39)-LEN(SUBSTITUTE(E39, ",","")))/LEN(",")+1</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G39" s="11" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="11">
         <v>38</v>
       </c>
@@ -5073,14 +5114,14 @@
         <v>126</v>
       </c>
       <c r="F40" s="11">
-        <f>(LEN(E40)-LEN(SUBSTITUTE(E40, ",","")))/LEN(",")+1</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G40" s="11" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="11">
         <v>39</v>
       </c>
@@ -5098,14 +5139,14 @@
         <v>127</v>
       </c>
       <c r="F41" s="11">
-        <f>(LEN(E41)-LEN(SUBSTITUTE(E41, ",","")))/LEN(",")+1</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G41" s="11" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="11">
         <v>40</v>
       </c>
@@ -5123,14 +5164,14 @@
         <v>125</v>
       </c>
       <c r="F42" s="11">
-        <f>(LEN(E42)-LEN(SUBSTITUTE(E42, ",","")))/LEN(",")+1</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="11">
         <v>41</v>
       </c>
@@ -5148,14 +5189,14 @@
         <v>126</v>
       </c>
       <c r="F43" s="11">
-        <f>(LEN(E43)-LEN(SUBSTITUTE(E43, ",","")))/LEN(",")+1</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G43" s="11" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="11">
         <v>42</v>
       </c>
@@ -5173,14 +5214,14 @@
         <v>49</v>
       </c>
       <c r="F44" s="11">
-        <f>(LEN(E44)-LEN(SUBSTITUTE(E44, ",","")))/LEN(",")+1</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G44" s="11" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="11">
         <v>43</v>
       </c>
@@ -5198,14 +5239,14 @@
         <v>50</v>
       </c>
       <c r="F45" s="11">
-        <f>(LEN(E45)-LEN(SUBSTITUTE(E45, ",","")))/LEN(",")+1</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G45" s="11" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="11">
         <v>44</v>
       </c>
@@ -5214,7 +5255,7 @@
         <v>00101100</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="11">
         <v>45</v>
       </c>
@@ -5223,7 +5264,7 @@
         <v>00101101</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="11">
         <v>46</v>
       </c>
@@ -5232,7 +5273,7 @@
         <v>00101110</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="11">
         <v>47</v>
       </c>
@@ -5241,7 +5282,7 @@
         <v>00101111</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="11">
         <v>48</v>
       </c>
@@ -5250,7 +5291,7 @@
         <v>00110000</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="11">
         <v>49</v>
       </c>
@@ -5259,7 +5300,7 @@
         <v>00110001</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="11">
         <v>50</v>
       </c>
@@ -5268,7 +5309,7 @@
         <v>00110010</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="11">
         <v>51</v>
       </c>
@@ -5277,7 +5318,7 @@
         <v>00110011</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="11">
         <v>52</v>
       </c>
@@ -5286,7 +5327,7 @@
         <v>00110100</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="11">
         <v>53</v>
       </c>
@@ -5295,7 +5336,7 @@
         <v>00110101</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="11">
         <v>54</v>
       </c>
@@ -5304,7 +5345,7 @@
         <v>00110110</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="11">
         <v>55</v>
       </c>
@@ -5313,7 +5354,7 @@
         <v>00110111</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="11">
         <v>56</v>
       </c>
@@ -5322,7 +5363,7 @@
         <v>00111000</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="11">
         <v>57</v>
       </c>
@@ -5331,7 +5372,7 @@
         <v>00111001</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="11">
         <v>58</v>
       </c>
@@ -5340,7 +5381,7 @@
         <v>00111010</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="11">
         <v>59</v>
       </c>
@@ -5349,7 +5390,7 @@
         <v>00111011</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="11">
         <v>60</v>
       </c>
@@ -5358,7 +5399,7 @@
         <v>00111100</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="11">
         <v>61</v>
       </c>
@@ -5367,7 +5408,7 @@
         <v>00111101</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="11">
         <v>62</v>
       </c>
@@ -5376,7 +5417,7 @@
         <v>00111110</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="11">
         <v>63</v>
       </c>
@@ -5385,7 +5426,7 @@
         <v>00111111</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="11">
         <v>64</v>
       </c>
@@ -5394,1727 +5435,1728 @@
         <v>01000000</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="11">
         <v>65</v>
       </c>
       <c r="B67" s="11" t="str">
-        <f t="shared" ref="B67:B130" si="3">DEC2BIN(ROW()-2,8)</f>
+        <f t="shared" ref="B67:B130" si="4">DEC2BIN(ROW()-2,8)</f>
         <v>01000001</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="11">
         <v>66</v>
       </c>
       <c r="B68" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01000010</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="11">
         <v>67</v>
       </c>
       <c r="B69" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01000011</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="11">
         <v>68</v>
       </c>
       <c r="B70" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01000100</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="11">
         <v>69</v>
       </c>
       <c r="B71" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01000101</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="11">
         <v>70</v>
       </c>
       <c r="B72" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01000110</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="11">
         <v>71</v>
       </c>
       <c r="B73" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01000111</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="11">
         <v>72</v>
       </c>
       <c r="B74" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01001000</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="11">
         <v>73</v>
       </c>
       <c r="B75" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01001001</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="11">
         <v>74</v>
       </c>
       <c r="B76" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01001010</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="11">
         <v>75</v>
       </c>
       <c r="B77" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01001011</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="11">
         <v>76</v>
       </c>
       <c r="B78" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01001100</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="11">
         <v>77</v>
       </c>
       <c r="B79" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01001101</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="11">
         <v>78</v>
       </c>
       <c r="B80" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01001110</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="11">
         <v>79</v>
       </c>
       <c r="B81" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01001111</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="11">
         <v>80</v>
       </c>
       <c r="B82" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01010000</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="11">
         <v>81</v>
       </c>
       <c r="B83" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01010001</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="11">
         <v>82</v>
       </c>
       <c r="B84" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01010010</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="11">
         <v>83</v>
       </c>
       <c r="B85" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01010011</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="11">
         <v>84</v>
       </c>
       <c r="B86" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01010100</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="11">
         <v>85</v>
       </c>
       <c r="B87" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01010101</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="11">
         <v>86</v>
       </c>
       <c r="B88" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01010110</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="11">
         <v>87</v>
       </c>
       <c r="B89" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01010111</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="11">
         <v>88</v>
       </c>
       <c r="B90" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01011000</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="11">
         <v>89</v>
       </c>
       <c r="B91" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01011001</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="11">
         <v>90</v>
       </c>
       <c r="B92" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01011010</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="11">
         <v>91</v>
       </c>
       <c r="B93" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01011011</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="11">
         <v>92</v>
       </c>
       <c r="B94" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01011100</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="11">
         <v>93</v>
       </c>
       <c r="B95" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01011101</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="11">
         <v>94</v>
       </c>
       <c r="B96" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01011110</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="11">
         <v>95</v>
       </c>
       <c r="B97" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01011111</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="11">
         <v>96</v>
       </c>
       <c r="B98" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01100000</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="11">
         <v>97</v>
       </c>
       <c r="B99" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01100001</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="11">
         <v>98</v>
       </c>
       <c r="B100" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01100010</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="11">
         <v>99</v>
       </c>
       <c r="B101" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01100011</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="11">
         <v>100</v>
       </c>
       <c r="B102" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01100100</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="11">
         <v>101</v>
       </c>
       <c r="B103" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01100101</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="11">
         <v>102</v>
       </c>
       <c r="B104" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01100110</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="11">
         <v>103</v>
       </c>
       <c r="B105" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01100111</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="11">
         <v>104</v>
       </c>
       <c r="B106" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01101000</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="11">
         <v>105</v>
       </c>
       <c r="B107" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01101001</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="11">
         <v>106</v>
       </c>
       <c r="B108" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01101010</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="11">
         <v>107</v>
       </c>
       <c r="B109" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01101011</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="11">
         <v>108</v>
       </c>
       <c r="B110" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01101100</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="11">
         <v>109</v>
       </c>
       <c r="B111" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01101101</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="11">
         <v>110</v>
       </c>
       <c r="B112" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01101110</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="11">
         <v>111</v>
       </c>
       <c r="B113" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01101111</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="11">
         <v>112</v>
       </c>
       <c r="B114" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01110000</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="11">
         <v>113</v>
       </c>
       <c r="B115" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01110001</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="11">
         <v>114</v>
       </c>
       <c r="B116" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01110010</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="11">
         <v>115</v>
       </c>
       <c r="B117" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01110011</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="11">
         <v>116</v>
       </c>
       <c r="B118" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01110100</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="11">
         <v>117</v>
       </c>
       <c r="B119" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01110101</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="11">
         <v>118</v>
       </c>
       <c r="B120" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01110110</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="11">
         <v>119</v>
       </c>
       <c r="B121" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01110111</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="11">
         <v>120</v>
       </c>
       <c r="B122" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01111000</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="11">
         <v>121</v>
       </c>
       <c r="B123" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01111001</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="11">
         <v>122</v>
       </c>
       <c r="B124" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01111010</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="11">
         <v>123</v>
       </c>
       <c r="B125" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01111011</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="11">
         <v>124</v>
       </c>
       <c r="B126" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01111100</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="11">
         <v>125</v>
       </c>
       <c r="B127" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01111101</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="11">
         <v>126</v>
       </c>
       <c r="B128" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01111110</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="11">
         <v>127</v>
       </c>
       <c r="B129" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>01111111</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="11">
         <v>128</v>
       </c>
       <c r="B130" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10000000</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="11">
         <v>129</v>
       </c>
       <c r="B131" s="11" t="str">
-        <f t="shared" ref="B131:B194" si="4">DEC2BIN(ROW()-2,8)</f>
+        <f t="shared" ref="B131:B194" si="5">DEC2BIN(ROW()-2,8)</f>
         <v>10000001</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="11">
         <v>130</v>
       </c>
       <c r="B132" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10000010</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="11">
         <v>131</v>
       </c>
       <c r="B133" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10000011</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="11">
         <v>132</v>
       </c>
       <c r="B134" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10000100</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="11">
         <v>133</v>
       </c>
       <c r="B135" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10000101</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="11">
         <v>134</v>
       </c>
       <c r="B136" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10000110</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="11">
         <v>135</v>
       </c>
       <c r="B137" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10000111</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="11">
         <v>136</v>
       </c>
       <c r="B138" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10001000</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="11">
         <v>137</v>
       </c>
       <c r="B139" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10001001</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="11">
         <v>138</v>
       </c>
       <c r="B140" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10001010</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="11">
         <v>139</v>
       </c>
       <c r="B141" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10001011</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="11">
         <v>140</v>
       </c>
       <c r="B142" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10001100</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="11">
         <v>141</v>
       </c>
       <c r="B143" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10001101</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="11">
         <v>142</v>
       </c>
       <c r="B144" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10001110</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="11">
         <v>143</v>
       </c>
       <c r="B145" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10001111</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="11">
         <v>144</v>
       </c>
       <c r="B146" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10010000</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="11">
         <v>145</v>
       </c>
       <c r="B147" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10010001</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="11">
         <v>146</v>
       </c>
       <c r="B148" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10010010</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="11">
         <v>147</v>
       </c>
       <c r="B149" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10010011</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="11">
         <v>148</v>
       </c>
       <c r="B150" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10010100</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="11">
         <v>149</v>
       </c>
       <c r="B151" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10010101</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="11">
         <v>150</v>
       </c>
       <c r="B152" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10010110</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="11">
         <v>151</v>
       </c>
       <c r="B153" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10010111</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="11">
         <v>152</v>
       </c>
       <c r="B154" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10011000</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="11">
         <v>153</v>
       </c>
       <c r="B155" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10011001</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="11">
         <v>154</v>
       </c>
       <c r="B156" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10011010</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="11">
         <v>155</v>
       </c>
       <c r="B157" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10011011</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="11">
         <v>156</v>
       </c>
       <c r="B158" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10011100</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="11">
         <v>157</v>
       </c>
       <c r="B159" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10011101</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="11">
         <v>158</v>
       </c>
       <c r="B160" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10011110</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="11">
         <v>159</v>
       </c>
       <c r="B161" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10011111</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="11">
         <v>160</v>
       </c>
       <c r="B162" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10100000</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="11">
         <v>161</v>
       </c>
       <c r="B163" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10100001</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="11">
         <v>162</v>
       </c>
       <c r="B164" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10100010</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="11">
         <v>163</v>
       </c>
       <c r="B165" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10100011</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="11">
         <v>164</v>
       </c>
       <c r="B166" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10100100</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="11">
         <v>165</v>
       </c>
       <c r="B167" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10100101</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="11">
         <v>166</v>
       </c>
       <c r="B168" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10100110</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="11">
         <v>167</v>
       </c>
       <c r="B169" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10100111</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="11">
         <v>168</v>
       </c>
       <c r="B170" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10101000</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="11">
         <v>169</v>
       </c>
       <c r="B171" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10101001</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="11">
         <v>170</v>
       </c>
       <c r="B172" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10101010</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="11">
         <v>171</v>
       </c>
       <c r="B173" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10101011</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="11">
         <v>172</v>
       </c>
       <c r="B174" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10101100</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="11">
         <v>173</v>
       </c>
       <c r="B175" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10101101</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="11">
         <v>174</v>
       </c>
       <c r="B176" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10101110</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="11">
         <v>175</v>
       </c>
       <c r="B177" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10101111</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="11">
         <v>176</v>
       </c>
       <c r="B178" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10110000</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="11">
         <v>177</v>
       </c>
       <c r="B179" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10110001</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="11">
         <v>178</v>
       </c>
       <c r="B180" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10110010</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="11">
         <v>179</v>
       </c>
       <c r="B181" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10110011</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="11">
         <v>180</v>
       </c>
       <c r="B182" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10110100</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="11">
         <v>181</v>
       </c>
       <c r="B183" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10110101</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="11">
         <v>182</v>
       </c>
       <c r="B184" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10110110</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="11">
         <v>183</v>
       </c>
       <c r="B185" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10110111</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="11">
         <v>184</v>
       </c>
       <c r="B186" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10111000</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="11">
         <v>185</v>
       </c>
       <c r="B187" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10111001</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="11">
         <v>186</v>
       </c>
       <c r="B188" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10111010</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" s="11">
         <v>187</v>
       </c>
       <c r="B189" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10111011</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" s="11">
         <v>188</v>
       </c>
       <c r="B190" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10111100</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" s="11">
         <v>189</v>
       </c>
       <c r="B191" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10111101</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" s="11">
         <v>190</v>
       </c>
       <c r="B192" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10111110</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" s="11">
         <v>191</v>
       </c>
       <c r="B193" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10111111</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" s="11">
         <v>192</v>
       </c>
       <c r="B194" s="11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11000000</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" s="11">
         <v>193</v>
       </c>
       <c r="B195" s="11" t="str">
-        <f t="shared" ref="B195:B257" si="5">DEC2BIN(ROW()-2,8)</f>
+        <f t="shared" ref="B195:B257" si="6">DEC2BIN(ROW()-2,8)</f>
         <v>11000001</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" s="11">
         <v>194</v>
       </c>
       <c r="B196" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11000010</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" s="11">
         <v>195</v>
       </c>
       <c r="B197" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11000011</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" s="11">
         <v>196</v>
       </c>
       <c r="B198" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11000100</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" s="11">
         <v>197</v>
       </c>
       <c r="B199" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11000101</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" s="11">
         <v>198</v>
       </c>
       <c r="B200" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11000110</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" s="11">
         <v>199</v>
       </c>
       <c r="B201" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11000111</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" s="11">
         <v>200</v>
       </c>
       <c r="B202" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11001000</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" s="11">
         <v>201</v>
       </c>
       <c r="B203" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11001001</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" s="11">
         <v>202</v>
       </c>
       <c r="B204" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11001010</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" s="11">
         <v>203</v>
       </c>
       <c r="B205" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11001011</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" s="11">
         <v>204</v>
       </c>
       <c r="B206" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11001100</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" s="11">
         <v>205</v>
       </c>
       <c r="B207" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11001101</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" s="11">
         <v>206</v>
       </c>
       <c r="B208" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11001110</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" s="11">
         <v>207</v>
       </c>
       <c r="B209" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11001111</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" s="11">
         <v>208</v>
       </c>
       <c r="B210" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11010000</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" s="11">
         <v>209</v>
       </c>
       <c r="B211" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11010001</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" s="11">
         <v>210</v>
       </c>
       <c r="B212" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11010010</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" s="11">
         <v>211</v>
       </c>
       <c r="B213" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11010011</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" s="11">
         <v>212</v>
       </c>
       <c r="B214" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11010100</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" s="11">
         <v>213</v>
       </c>
       <c r="B215" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11010101</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" s="11">
         <v>214</v>
       </c>
       <c r="B216" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11010110</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" s="11">
         <v>215</v>
       </c>
       <c r="B217" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11010111</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" s="11">
         <v>216</v>
       </c>
       <c r="B218" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11011000</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" s="11">
         <v>217</v>
       </c>
       <c r="B219" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11011001</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" s="11">
         <v>218</v>
       </c>
       <c r="B220" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11011010</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" s="11">
         <v>219</v>
       </c>
       <c r="B221" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11011011</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" s="11">
         <v>220</v>
       </c>
       <c r="B222" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11011100</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" s="11">
         <v>221</v>
       </c>
       <c r="B223" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11011101</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" s="11">
         <v>222</v>
       </c>
       <c r="B224" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11011110</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" s="11">
         <v>223</v>
       </c>
       <c r="B225" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11011111</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" s="11">
         <v>224</v>
       </c>
       <c r="B226" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11100000</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" s="11">
         <v>225</v>
       </c>
       <c r="B227" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11100001</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" s="11">
         <v>226</v>
       </c>
       <c r="B228" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11100010</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" s="11">
         <v>227</v>
       </c>
       <c r="B229" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11100011</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" s="11">
         <v>228</v>
       </c>
       <c r="B230" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11100100</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" s="11">
         <v>229</v>
       </c>
       <c r="B231" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11100101</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" s="11">
         <v>230</v>
       </c>
       <c r="B232" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11100110</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" s="11">
         <v>231</v>
       </c>
       <c r="B233" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11100111</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" s="11">
         <v>232</v>
       </c>
       <c r="B234" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11101000</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" s="11">
         <v>233</v>
       </c>
       <c r="B235" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11101001</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" s="11">
         <v>234</v>
       </c>
       <c r="B236" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11101010</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" s="11">
         <v>235</v>
       </c>
       <c r="B237" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11101011</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" s="11">
         <v>236</v>
       </c>
       <c r="B238" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11101100</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" s="11">
         <v>237</v>
       </c>
       <c r="B239" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11101101</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" s="11">
         <v>238</v>
       </c>
       <c r="B240" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11101110</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" s="11">
         <v>239</v>
       </c>
       <c r="B241" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11101111</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" s="11">
         <v>240</v>
       </c>
       <c r="B242" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11110000</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" s="11">
         <v>241</v>
       </c>
       <c r="B243" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11110001</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" s="11">
         <v>242</v>
       </c>
       <c r="B244" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11110010</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" s="11">
         <v>243</v>
       </c>
       <c r="B245" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11110011</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" s="11">
         <v>244</v>
       </c>
       <c r="B246" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11110100</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" s="11">
         <v>245</v>
       </c>
       <c r="B247" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11110101</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" s="11">
         <v>246</v>
       </c>
       <c r="B248" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11110110</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" s="11">
         <v>247</v>
       </c>
       <c r="B249" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11110111</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" s="11">
         <v>248</v>
       </c>
       <c r="B250" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11111000</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" s="11">
         <v>249</v>
       </c>
       <c r="B251" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11111001</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" s="11">
         <v>250</v>
       </c>
       <c r="B252" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11111010</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" s="11">
         <v>251</v>
       </c>
       <c r="B253" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11111011</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" s="11">
         <v>252</v>
       </c>
       <c r="B254" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11111100</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" s="11">
         <v>253</v>
       </c>
       <c r="B255" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11111101</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" s="11">
         <v>254</v>
       </c>
       <c r="B256" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11111110</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" s="11">
         <v>255</v>
       </c>
       <c r="B257" s="11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11111111</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7126,18 +7168,18 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7109375" style="1"/>
+    <col min="4" max="4" width="13.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -7157,7 +7199,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -7181,7 +7223,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>0</v>
       </c>
@@ -7205,7 +7247,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>0</v>
       </c>
@@ -7229,7 +7271,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>0</v>
       </c>
@@ -7253,7 +7295,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -7277,7 +7319,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -7301,7 +7343,7 @@
         <v>01</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -7325,7 +7367,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>1</v>
       </c>
@@ -7349,7 +7391,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>2</v>
       </c>
@@ -7373,7 +7415,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>2</v>
       </c>
@@ -7397,7 +7439,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>2</v>
       </c>
@@ -7421,7 +7463,7 @@
         <v>01</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>2</v>
       </c>
@@ -7445,7 +7487,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>3</v>
       </c>
@@ -7469,7 +7511,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>3</v>
       </c>
@@ -7493,7 +7535,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>3</v>
       </c>
@@ -7517,7 +7559,7 @@
         <v>01</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>3</v>
       </c>

--- a/Instruction Set.xlsx
+++ b/Instruction Set.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesse\OneDrive - BYU Office 365\Projects\AmberOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5E5AB293-3E9B-4E03-9659-5ED49B3ECFE3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8060" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version 0.00" sheetId="1" r:id="rId1"/>
     <sheet name="Version 0.01" sheetId="3" r:id="rId2"/>
     <sheet name="Testing" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="147">
   <si>
     <t>OpCode</t>
   </si>
@@ -433,13 +434,46 @@
     <t>error</t>
   </si>
   <si>
-    <t>16 byte computer</t>
+    <t>NOOP</t>
+  </si>
+  <si>
+    <t>16 bit computer</t>
+  </si>
+  <si>
+    <t>v-ram</t>
+  </si>
+  <si>
+    <t>NBLK</t>
+  </si>
+  <si>
+    <t>Goes to address 0 of next block</t>
+  </si>
+  <si>
+    <t>BLK</t>
+  </si>
+  <si>
+    <t>[OpCode, Block]</t>
+  </si>
+  <si>
+    <t>Goes to address 0 of specified block</t>
+  </si>
+  <si>
+    <t>BLKP</t>
+  </si>
+  <si>
+    <t>Goes to specified address of a specific block</t>
+  </si>
+  <si>
+    <t>[OpCode, Block, Address]</t>
+  </si>
+  <si>
+    <t>CHBLK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00\ 00\ 00\ 00"/>
   </numFmts>
@@ -597,7 +631,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -654,6 +688,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -935,7 +975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I257"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
@@ -4032,11 +4072,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L257"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:N257"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4055,7 +4095,7 @@
     <col min="12" max="16384" width="9.1796875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
@@ -4078,7 +4118,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="11">
         <v>0</v>
       </c>
@@ -4086,8 +4126,8 @@
         <f>DEC2BIN(ROW()-2,8)</f>
         <v>00000000</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>10</v>
+      <c r="C2" s="20" t="s">
+        <v>135</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>11</v>
@@ -4103,7 +4143,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -4128,7 +4168,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -4152,8 +4192,11 @@
       <c r="G4" s="11" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="N4" s="18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -4178,10 +4221,17 @@
         <v>109</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+        <v>136</v>
+      </c>
+      <c r="L5" s="8">
+        <f>POWER(2,16)</f>
+        <v>65536</v>
+      </c>
+      <c r="N5" s="21">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="11">
         <v>4</v>
       </c>
@@ -4205,8 +4255,11 @@
       <c r="G6" s="11" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L6" s="8">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -4224,14 +4277,14 @@
         <v>57</v>
       </c>
       <c r="F7" s="11">
-        <f t="shared" ref="F7:F45" si="2">(LEN(E7)-LEN(SUBSTITUTE(E7, ",","")))/LEN(",")+1</f>
+        <f t="shared" ref="F7:F48" si="2">(LEN(E7)-LEN(SUBSTITUTE(E7, ",","")))/LEN(",")+1</f>
         <v>4</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>6</v>
       </c>
@@ -4256,7 +4309,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>7</v>
       </c>
@@ -4282,7 +4335,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>8</v>
       </c>
@@ -4317,7 +4370,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>9</v>
       </c>
@@ -4344,7 +4397,7 @@
       </c>
       <c r="I11" s="9">
         <f>AVERAGE(F:F)</f>
-        <v>3.5</v>
+        <v>3.4042553191489362</v>
       </c>
       <c r="K11" s="18" t="s">
         <v>132</v>
@@ -4353,7 +4406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>10</v>
       </c>
@@ -4385,7 +4438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>11</v>
       </c>
@@ -4414,7 +4467,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>12</v>
       </c>
@@ -4444,7 +4497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>13</v>
       </c>
@@ -4470,7 +4523,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>14</v>
       </c>
@@ -5254,6 +5307,22 @@
         <f t="shared" si="0"/>
         <v>00101100</v>
       </c>
+      <c r="C46" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G46" s="20" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="11">
@@ -5263,6 +5332,22 @@
         <f t="shared" si="0"/>
         <v>00101101</v>
       </c>
+      <c r="C47" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="F47" s="11">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G47" s="20" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="11">
@@ -5272,8 +5357,24 @@
         <f t="shared" si="0"/>
         <v>00101110</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C48" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="F48" s="11">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G48" s="20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="11">
         <v>47</v>
       </c>
@@ -5281,8 +5382,11 @@
         <f t="shared" si="0"/>
         <v>00101111</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C49" s="20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="11">
         <v>48</v>
       </c>
@@ -5291,7 +5395,7 @@
         <v>00110000</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="11">
         <v>49</v>
       </c>
@@ -5300,7 +5404,7 @@
         <v>00110001</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="11">
         <v>50</v>
       </c>
@@ -5309,7 +5413,7 @@
         <v>00110010</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="11">
         <v>51</v>
       </c>
@@ -5318,7 +5422,7 @@
         <v>00110011</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="11">
         <v>52</v>
       </c>
@@ -5327,7 +5431,7 @@
         <v>00110100</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="11">
         <v>53</v>
       </c>
@@ -5336,7 +5440,7 @@
         <v>00110101</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="11">
         <v>54</v>
       </c>
@@ -5345,7 +5449,7 @@
         <v>00110110</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="11">
         <v>55</v>
       </c>
@@ -5354,7 +5458,7 @@
         <v>00110111</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="11">
         <v>56</v>
       </c>
@@ -5363,7 +5467,7 @@
         <v>00111000</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="11">
         <v>57</v>
       </c>
@@ -5372,7 +5476,7 @@
         <v>00111001</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="11">
         <v>58</v>
       </c>
@@ -5381,7 +5485,7 @@
         <v>00111010</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="11">
         <v>59</v>
       </c>
@@ -5390,7 +5494,7 @@
         <v>00111011</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="11">
         <v>60</v>
       </c>
@@ -5399,7 +5503,7 @@
         <v>00111100</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="11">
         <v>61</v>
       </c>
@@ -5408,7 +5512,7 @@
         <v>00111101</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="11">
         <v>62</v>
       </c>
@@ -7161,7 +7265,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
